--- a/2022/Realme/Others/GT Master Price Adjustment 09-05-2022.xlsx
+++ b/2022/Realme/Others/GT Master Price Adjustment 09-05-2022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88017\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MC22\2022\Realme\Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -616,7 +616,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -693,7 +693,7 @@
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -753,7 +753,7 @@
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
